--- a/Medical Proforma.xlsx
+++ b/Medical Proforma.xlsx
@@ -878,40 +878,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -936,6 +916,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1472,12 +1472,12 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -1488,20 +1488,20 @@
       <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1510,8 +1510,8 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
@@ -1520,8 +1520,8 @@
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,8 +1531,8 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1541,8 +1541,8 @@
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1551,8 +1551,8 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1561,8 +1561,8 @@
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1571,8 +1571,8 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1581,8 +1581,8 @@
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1591,8 +1591,8 @@
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1601,8 +1601,8 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1619,20 +1619,20 @@
       <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -1641,12 +1641,12 @@
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1660,10 +1660,10 @@
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1697,12 +1697,12 @@
       <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -1856,12 +1856,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -1870,16 +1870,16 @@
       <c r="A52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="23"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -1888,28 +1888,48 @@
       <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="23" t="s">
+      <c r="B57" s="34"/>
+      <c r="C57" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="23"/>
+      <c r="D57" s="33"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="23" t="s">
+      <c r="B58" s="34"/>
+      <c r="C58" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="23"/>
+      <c r="D58" s="33"/>
     </row>
   </sheetData>
   <sheetProtection password="C345" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="33">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -1923,26 +1943,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
